--- a/exceldata/optimization/results_with_new_objective11.xlsx
+++ b/exceldata/optimization/results_with_new_objective11.xlsx
@@ -387,77 +387,77 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.02701269653678258</v>
+        <v>0.04170220630003736</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.0934253441634888</v>
+        <v>0.07203245214097088</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>0.01752602435252295</v>
+        <v>0.03455607924869751</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>0.04771706997569007</v>
+        <v>0.03967675345539226</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>0.02372821362292718</v>
+        <v>0.05388167801216836</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.03326864295226548</v>
+        <v>0.04191945724838434</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.08090526848729604</v>
+        <v>0.06852195318748094</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9">
-        <v>0.03827908322219351</v>
+        <v>0.02044523292862925</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10">
-        <v>0.07474239985301638</v>
+        <v>0.08781174485792018</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11">
-        <v>0.03451412272102362</v>
+        <v>0.002738769045916685</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12">
-        <v>0.03574436237654559</v>
+        <v>1.144748059074049E-05</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13">
-        <v>0.02491683689534367</v>
+        <v>0.03023326423985825</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14">
-        <v>0.01198773314648301</v>
+        <v>0.0146755976141524</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15">
-        <v>0.008641304048475145</v>
+        <v>0.009233868553493833</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16">
-        <v>0.02542380866360574</v>
+        <v>0.01862602927516498</v>
       </c>
     </row>
   </sheetData>
